--- a/NAPS_WordNet_Landscapes.xlsx
+++ b/NAPS_WordNet_Landscapes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marko Horvat\Desktop\Desktop Folders\Desktop Folders_04\135_MDPI Data_NAPS WordNet\01_Dataset\03_Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52162E8-849E-442B-823A-71394138B756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61E2983C-4F43-4E71-99D9-1E42BE4AE713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="28800" windowHeight="15345" xr2:uid="{ECADF191-0F0A-4995-8D62-5787597EEA75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{ECADF191-0F0A-4995-8D62-5787597EEA75}"/>
   </bookViews>
   <sheets>
     <sheet name="Landscapes" sheetId="1" r:id="rId1"/>
@@ -1719,7 +1719,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C3C4C67-6B1F-4224-95DC-81C055DB835C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W189"/>
+  <dimension ref="A1:X189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1732,7 +1732,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1">
+    <row r="1" spans="1:24" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1763,21 +1763,22 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1796,8 +1797,22 @@
       <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1816,8 +1831,22 @@
       <c r="F3" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
@@ -1836,8 +1865,22 @@
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1853,8 +1896,22 @@
       <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
@@ -1870,8 +1927,22 @@
       <c r="E6" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="5" t="s">
         <v>31</v>
       </c>
@@ -1887,8 +1958,22 @@
       <c r="E7" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1907,8 +1992,22 @@
       <c r="F8" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -1927,8 +2026,22 @@
       <c r="F9" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -1944,8 +2057,22 @@
       <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -1961,8 +2088,22 @@
       <c r="E11" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="5" t="s">
         <v>46</v>
       </c>
@@ -1978,8 +2119,22 @@
       <c r="E12" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="5" t="s">
         <v>47</v>
       </c>
@@ -1992,8 +2147,22 @@
       <c r="D13" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="5" t="s">
         <v>50</v>
       </c>
@@ -2009,8 +2178,22 @@
       <c r="E14" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="5" t="s">
         <v>54</v>
       </c>
@@ -2026,8 +2209,22 @@
       <c r="E15" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="5" t="s">
         <v>56</v>
       </c>
@@ -2043,8 +2240,22 @@
       <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="5" t="s">
         <v>57</v>
       </c>
@@ -2060,8 +2271,22 @@
       <c r="E17" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="5" t="s">
         <v>61</v>
       </c>
@@ -2080,8 +2305,22 @@
       <c r="F18" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="5" t="s">
         <v>63</v>
       </c>
@@ -2100,8 +2339,22 @@
       <c r="F19" s="7" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="5" t="s">
         <v>65</v>
       </c>
@@ -2117,8 +2370,22 @@
       <c r="E20" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="5" t="s">
         <v>66</v>
       </c>
@@ -2134,8 +2401,22 @@
       <c r="E21" s="7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
@@ -2154,8 +2435,22 @@
       <c r="F22" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="5" t="s">
         <v>71</v>
       </c>
@@ -2171,8 +2466,22 @@
       <c r="E23" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="5" t="s">
         <v>75</v>
       </c>
@@ -2197,8 +2506,22 @@
       <c r="H24" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
@@ -2214,8 +2537,22 @@
       <c r="E25" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" s="5" t="s">
         <v>83</v>
       </c>
@@ -2231,8 +2568,22 @@
       <c r="E26" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="5" t="s">
         <v>84</v>
       </c>
@@ -2245,8 +2596,22 @@
       <c r="D27" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="5" t="s">
         <v>85</v>
       </c>
@@ -2262,8 +2627,22 @@
       <c r="E28" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="5" t="s">
         <v>87</v>
       </c>
@@ -2282,8 +2661,22 @@
       <c r="F29" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" s="5" t="s">
         <v>91</v>
       </c>
@@ -2299,8 +2692,22 @@
       <c r="E30" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="5" t="s">
         <v>94</v>
       </c>
@@ -2316,8 +2723,22 @@
       <c r="E31" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" s="5" t="s">
         <v>97</v>
       </c>
@@ -2333,8 +2754,22 @@
       <c r="E32" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="5" t="s">
         <v>99</v>
       </c>
@@ -2359,8 +2794,22 @@
       <c r="H33" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="5" t="s">
         <v>103</v>
       </c>
@@ -2376,8 +2825,22 @@
       <c r="E34" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="5" t="s">
         <v>105</v>
       </c>
@@ -2393,8 +2856,22 @@
       <c r="E35" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="5" t="s">
         <v>109</v>
       </c>
@@ -2407,8 +2884,22 @@
       <c r="D36" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="5" t="s">
         <v>112</v>
       </c>
@@ -2424,8 +2915,22 @@
       <c r="E37" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="5" t="s">
         <v>115</v>
       </c>
@@ -2441,8 +2946,22 @@
       <c r="E38" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="5" t="s">
         <v>118</v>
       </c>
@@ -2458,8 +2977,22 @@
       <c r="E39" s="7" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="5" t="s">
         <v>122</v>
       </c>
@@ -2475,8 +3008,22 @@
       <c r="E40" s="7" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="5" t="s">
         <v>123</v>
       </c>
@@ -2492,8 +3039,22 @@
       <c r="E41" s="7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+      <c r="P41"/>
+      <c r="Q41"/>
+      <c r="R41"/>
+      <c r="S41"/>
+      <c r="T41"/>
+      <c r="U41"/>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="5" t="s">
         <v>125</v>
       </c>
@@ -2509,8 +3070,22 @@
       <c r="E42" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42"/>
+      <c r="R42"/>
+      <c r="S42"/>
+      <c r="T42"/>
+      <c r="U42"/>
+      <c r="V42"/>
+      <c r="W42"/>
+      <c r="X42"/>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="5" t="s">
         <v>128</v>
       </c>
@@ -2529,8 +3104,22 @@
       <c r="F43" s="7" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="5" t="s">
         <v>131</v>
       </c>
@@ -2546,8 +3135,22 @@
       <c r="E44" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="5" t="s">
         <v>134</v>
       </c>
@@ -2563,8 +3166,22 @@
       <c r="E45" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" s="5" t="s">
         <v>135</v>
       </c>
@@ -2580,8 +3197,22 @@
       <c r="E46" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="5" t="s">
         <v>138</v>
       </c>
@@ -2597,8 +3228,22 @@
       <c r="E47" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" s="5" t="s">
         <v>141</v>
       </c>
@@ -2611,8 +3256,22 @@
       <c r="D48" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" s="5" t="s">
         <v>142</v>
       </c>
@@ -2631,8 +3290,22 @@
       <c r="F49" s="7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" s="5" t="s">
         <v>147</v>
       </c>
@@ -2654,8 +3327,22 @@
       <c r="G50" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" s="5" t="s">
         <v>151</v>
       </c>
@@ -2674,8 +3361,22 @@
       <c r="F51" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+    </row>
+    <row r="52" spans="1:24">
       <c r="A52" s="5" t="s">
         <v>154</v>
       </c>
@@ -2694,8 +3395,22 @@
       <c r="F52" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" s="5" t="s">
         <v>155</v>
       </c>
@@ -2717,8 +3432,22 @@
       <c r="G53" s="7" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" s="5" t="s">
         <v>160</v>
       </c>
@@ -2737,8 +3466,22 @@
       <c r="F54" s="7" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" s="5" t="s">
         <v>163</v>
       </c>
@@ -2757,8 +3500,22 @@
       <c r="F55" s="7" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" s="5" t="s">
         <v>165</v>
       </c>
@@ -2774,8 +3531,22 @@
       <c r="E56" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" s="5" t="s">
         <v>168</v>
       </c>
@@ -2794,8 +3565,22 @@
       <c r="F57" s="7" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" s="5" t="s">
         <v>170</v>
       </c>
@@ -2814,8 +3599,22 @@
       <c r="F58" s="7" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" s="5" t="s">
         <v>174</v>
       </c>
@@ -2837,8 +3636,22 @@
       <c r="G59" s="7" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" s="5" t="s">
         <v>177</v>
       </c>
@@ -2857,8 +3670,22 @@
       <c r="F60" s="7" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" s="5" t="s">
         <v>179</v>
       </c>
@@ -2877,8 +3704,22 @@
       <c r="F61" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" s="5" t="s">
         <v>183</v>
       </c>
@@ -2897,8 +3738,22 @@
       <c r="F62" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" s="5" t="s">
         <v>185</v>
       </c>
@@ -2917,8 +3772,22 @@
       <c r="F63" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" s="5" t="s">
         <v>189</v>
       </c>
@@ -2940,8 +3809,22 @@
       <c r="G64" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="5" t="s">
         <v>190</v>
       </c>
@@ -2960,8 +3843,22 @@
       <c r="F65" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="5" t="s">
         <v>193</v>
       </c>
@@ -2983,8 +3880,22 @@
       <c r="G66" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="5" t="s">
         <v>195</v>
       </c>
@@ -3006,8 +3917,22 @@
       <c r="G67" s="7" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="5" t="s">
         <v>198</v>
       </c>
@@ -3026,8 +3951,22 @@
       <c r="F68" s="7" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="5" t="s">
         <v>200</v>
       </c>
@@ -3052,8 +3991,22 @@
       <c r="H69" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="5" t="s">
         <v>202</v>
       </c>
@@ -3069,8 +4022,22 @@
       <c r="E70" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="5" t="s">
         <v>204</v>
       </c>
@@ -3089,8 +4056,22 @@
       <c r="F71" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="5" t="s">
         <v>206</v>
       </c>
@@ -3112,8 +4093,22 @@
       <c r="G72" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" s="5" t="s">
         <v>209</v>
       </c>
@@ -3132,8 +4127,22 @@
       <c r="F73" s="7" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" s="5" t="s">
         <v>211</v>
       </c>
@@ -3155,8 +4164,22 @@
       <c r="G74" s="7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" s="5" t="s">
         <v>212</v>
       </c>
@@ -3172,8 +4195,22 @@
       <c r="E75" s="7" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+      <c r="O75"/>
+      <c r="P75"/>
+      <c r="Q75"/>
+      <c r="R75"/>
+      <c r="S75"/>
+      <c r="T75"/>
+      <c r="U75"/>
+      <c r="V75"/>
+      <c r="W75"/>
+      <c r="X75"/>
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" s="5" t="s">
         <v>215</v>
       </c>
@@ -3192,8 +4229,22 @@
       <c r="F76" s="7" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+      <c r="O76"/>
+      <c r="P76"/>
+      <c r="Q76"/>
+      <c r="R76"/>
+      <c r="S76"/>
+      <c r="T76"/>
+      <c r="U76"/>
+      <c r="V76"/>
+      <c r="W76"/>
+      <c r="X76"/>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" s="5" t="s">
         <v>217</v>
       </c>
@@ -3209,8 +4260,22 @@
       <c r="E77" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+      <c r="P77"/>
+      <c r="Q77"/>
+      <c r="R77"/>
+      <c r="S77"/>
+      <c r="T77"/>
+      <c r="U77"/>
+      <c r="V77"/>
+      <c r="W77"/>
+      <c r="X77"/>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" s="5" t="s">
         <v>219</v>
       </c>
@@ -3229,8 +4294,22 @@
       <c r="F78" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+      <c r="O78"/>
+      <c r="P78"/>
+      <c r="Q78"/>
+      <c r="R78"/>
+      <c r="S78"/>
+      <c r="T78"/>
+      <c r="U78"/>
+      <c r="V78"/>
+      <c r="W78"/>
+      <c r="X78"/>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" s="5" t="s">
         <v>222</v>
       </c>
@@ -3249,8 +4328,22 @@
       <c r="F79" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79"/>
+      <c r="Q79"/>
+      <c r="R79"/>
+      <c r="S79"/>
+      <c r="T79"/>
+      <c r="U79"/>
+      <c r="V79"/>
+      <c r="W79"/>
+      <c r="X79"/>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" s="5" t="s">
         <v>223</v>
       </c>
@@ -3269,8 +4362,22 @@
       <c r="F80" s="7" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80"/>
+      <c r="Q80"/>
+      <c r="R80"/>
+      <c r="S80"/>
+      <c r="T80"/>
+      <c r="U80"/>
+      <c r="V80"/>
+      <c r="W80"/>
+      <c r="X80"/>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" s="5" t="s">
         <v>225</v>
       </c>
@@ -3289,8 +4396,22 @@
       <c r="F81" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81"/>
+      <c r="Q81"/>
+      <c r="R81"/>
+      <c r="S81"/>
+      <c r="T81"/>
+      <c r="U81"/>
+      <c r="V81"/>
+      <c r="W81"/>
+      <c r="X81"/>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" s="5" t="s">
         <v>226</v>
       </c>
@@ -3306,8 +4427,22 @@
       <c r="E82" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
+      <c r="Q82"/>
+      <c r="R82"/>
+      <c r="S82"/>
+      <c r="T82"/>
+      <c r="U82"/>
+      <c r="V82"/>
+      <c r="W82"/>
+      <c r="X82"/>
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" s="5" t="s">
         <v>227</v>
       </c>
@@ -3326,8 +4461,22 @@
       <c r="F83" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" s="5" t="s">
         <v>228</v>
       </c>
@@ -3346,8 +4495,22 @@
       <c r="F84" s="7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" s="5" t="s">
         <v>230</v>
       </c>
@@ -3366,8 +4529,22 @@
       <c r="F85" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+      <c r="O85"/>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" s="5" t="s">
         <v>231</v>
       </c>
@@ -3386,8 +4563,22 @@
       <c r="F86" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+      <c r="O86"/>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" s="5" t="s">
         <v>233</v>
       </c>
@@ -3406,8 +4597,22 @@
       <c r="F87" s="7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+      <c r="O87"/>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" s="5" t="s">
         <v>238</v>
       </c>
@@ -3426,8 +4631,22 @@
       <c r="F88" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+      <c r="O88"/>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" s="5" t="s">
         <v>239</v>
       </c>
@@ -3446,8 +4665,22 @@
       <c r="F89" s="7" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+      <c r="O89"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" s="5" t="s">
         <v>241</v>
       </c>
@@ -3463,8 +4696,22 @@
       <c r="E90" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+      <c r="O90"/>
+      <c r="P90"/>
+      <c r="Q90"/>
+      <c r="R90"/>
+      <c r="S90"/>
+      <c r="T90"/>
+      <c r="U90"/>
+      <c r="V90"/>
+      <c r="W90"/>
+      <c r="X90"/>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" s="5" t="s">
         <v>243</v>
       </c>
@@ -3483,8 +4730,22 @@
       <c r="F91" s="7" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+      <c r="O91"/>
+      <c r="P91"/>
+      <c r="Q91"/>
+      <c r="R91"/>
+      <c r="S91"/>
+      <c r="T91"/>
+      <c r="U91"/>
+      <c r="V91"/>
+      <c r="W91"/>
+      <c r="X91"/>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" s="5" t="s">
         <v>245</v>
       </c>
@@ -3500,8 +4761,22 @@
       <c r="E92" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+      <c r="O92"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" s="5" t="s">
         <v>247</v>
       </c>
@@ -3520,8 +4795,22 @@
       <c r="F93" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+    </row>
+    <row r="94" spans="1:24">
       <c r="A94" s="5" t="s">
         <v>250</v>
       </c>
@@ -3540,8 +4829,22 @@
       <c r="F94" s="7" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+      <c r="S94"/>
+      <c r="T94"/>
+      <c r="U94"/>
+      <c r="V94"/>
+      <c r="W94"/>
+      <c r="X94"/>
+    </row>
+    <row r="95" spans="1:24">
       <c r="A95" s="5" t="s">
         <v>254</v>
       </c>
@@ -3560,8 +4863,22 @@
       <c r="F95" s="7" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+      <c r="S95"/>
+      <c r="T95"/>
+      <c r="U95"/>
+      <c r="V95"/>
+      <c r="W95"/>
+      <c r="X95"/>
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" s="5" t="s">
         <v>257</v>
       </c>
@@ -3580,8 +4897,22 @@
       <c r="F96" s="7" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+      <c r="O96"/>
+      <c r="P96"/>
+      <c r="Q96"/>
+      <c r="R96"/>
+      <c r="S96"/>
+      <c r="T96"/>
+      <c r="U96"/>
+      <c r="V96"/>
+      <c r="W96"/>
+      <c r="X96"/>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" s="5" t="s">
         <v>260</v>
       </c>
@@ -3597,8 +4928,22 @@
       <c r="E97" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+      <c r="O97"/>
+      <c r="P97"/>
+      <c r="Q97"/>
+      <c r="R97"/>
+      <c r="S97"/>
+      <c r="T97"/>
+      <c r="U97"/>
+      <c r="V97"/>
+      <c r="W97"/>
+      <c r="X97"/>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" s="5" t="s">
         <v>262</v>
       </c>
@@ -3614,8 +4959,22 @@
       <c r="E98" s="7" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+      <c r="S98"/>
+      <c r="T98"/>
+      <c r="U98"/>
+      <c r="V98"/>
+      <c r="W98"/>
+      <c r="X98"/>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" s="5" t="s">
         <v>265</v>
       </c>
@@ -3631,8 +4990,22 @@
       <c r="E99" s="7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+      <c r="O99"/>
+      <c r="P99"/>
+      <c r="Q99"/>
+      <c r="R99"/>
+      <c r="S99"/>
+      <c r="T99"/>
+      <c r="U99"/>
+      <c r="V99"/>
+      <c r="W99"/>
+      <c r="X99"/>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" s="5" t="s">
         <v>268</v>
       </c>
@@ -3645,8 +5018,22 @@
       <c r="D100" s="7" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+      <c r="O100"/>
+      <c r="P100"/>
+      <c r="Q100"/>
+      <c r="R100"/>
+      <c r="S100"/>
+      <c r="T100"/>
+      <c r="U100"/>
+      <c r="V100"/>
+      <c r="W100"/>
+      <c r="X100"/>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" s="5" t="s">
         <v>270</v>
       </c>
@@ -3665,8 +5052,22 @@
       <c r="F101" s="7" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+      <c r="O101"/>
+      <c r="P101"/>
+      <c r="Q101"/>
+      <c r="R101"/>
+      <c r="S101"/>
+      <c r="T101"/>
+      <c r="U101"/>
+      <c r="V101"/>
+      <c r="W101"/>
+      <c r="X101"/>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" s="5" t="s">
         <v>274</v>
       </c>
@@ -3685,8 +5086,22 @@
       <c r="F102" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+      <c r="O102"/>
+      <c r="P102"/>
+      <c r="Q102"/>
+      <c r="R102"/>
+      <c r="S102"/>
+      <c r="T102"/>
+      <c r="U102"/>
+      <c r="V102"/>
+      <c r="W102"/>
+      <c r="X102"/>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" s="5" t="s">
         <v>276</v>
       </c>
@@ -3702,8 +5117,22 @@
       <c r="E103" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+      <c r="O103"/>
+      <c r="P103"/>
+      <c r="Q103"/>
+      <c r="R103"/>
+      <c r="S103"/>
+      <c r="T103"/>
+      <c r="U103"/>
+      <c r="V103"/>
+      <c r="W103"/>
+      <c r="X103"/>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" s="5" t="s">
         <v>278</v>
       </c>
@@ -3722,8 +5151,22 @@
       <c r="F104" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+      <c r="O104"/>
+      <c r="P104"/>
+      <c r="Q104"/>
+      <c r="R104"/>
+      <c r="S104"/>
+      <c r="T104"/>
+      <c r="U104"/>
+      <c r="V104"/>
+      <c r="W104"/>
+      <c r="X104"/>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" s="5" t="s">
         <v>281</v>
       </c>
@@ -3742,8 +5185,22 @@
       <c r="F105" s="7" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+      <c r="O105"/>
+      <c r="P105"/>
+      <c r="Q105"/>
+      <c r="R105"/>
+      <c r="S105"/>
+      <c r="T105"/>
+      <c r="U105"/>
+      <c r="V105"/>
+      <c r="W105"/>
+      <c r="X105"/>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" s="5" t="s">
         <v>284</v>
       </c>
@@ -3762,8 +5219,22 @@
       <c r="F106" s="7" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+      <c r="O106"/>
+      <c r="P106"/>
+      <c r="Q106"/>
+      <c r="R106"/>
+      <c r="S106"/>
+      <c r="T106"/>
+      <c r="U106"/>
+      <c r="V106"/>
+      <c r="W106"/>
+      <c r="X106"/>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" s="5" t="s">
         <v>286</v>
       </c>
@@ -3776,8 +5247,22 @@
       <c r="D107" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+      <c r="O107"/>
+      <c r="P107"/>
+      <c r="Q107"/>
+      <c r="R107"/>
+      <c r="S107"/>
+      <c r="T107"/>
+      <c r="U107"/>
+      <c r="V107"/>
+      <c r="W107"/>
+      <c r="X107"/>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" s="5" t="s">
         <v>287</v>
       </c>
@@ -3793,8 +5278,22 @@
       <c r="E108" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+      <c r="O108"/>
+      <c r="P108"/>
+      <c r="Q108"/>
+      <c r="R108"/>
+      <c r="S108"/>
+      <c r="T108"/>
+      <c r="U108"/>
+      <c r="V108"/>
+      <c r="W108"/>
+      <c r="X108"/>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" s="5" t="s">
         <v>289</v>
       </c>
@@ -3810,8 +5309,22 @@
       <c r="E109" s="7" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+      <c r="O109"/>
+      <c r="P109"/>
+      <c r="Q109"/>
+      <c r="R109"/>
+      <c r="S109"/>
+      <c r="T109"/>
+      <c r="U109"/>
+      <c r="V109"/>
+      <c r="W109"/>
+      <c r="X109"/>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" s="5" t="s">
         <v>292</v>
       </c>
@@ -3833,8 +5346,22 @@
       <c r="G110" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+      <c r="O110"/>
+      <c r="P110"/>
+      <c r="Q110"/>
+      <c r="R110"/>
+      <c r="S110"/>
+      <c r="T110"/>
+      <c r="U110"/>
+      <c r="V110"/>
+      <c r="W110"/>
+      <c r="X110"/>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" s="5" t="s">
         <v>293</v>
       </c>
@@ -3850,8 +5377,22 @@
       <c r="E111" s="7" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+      <c r="O111"/>
+      <c r="P111"/>
+      <c r="Q111"/>
+      <c r="R111"/>
+      <c r="S111"/>
+      <c r="T111"/>
+      <c r="U111"/>
+      <c r="V111"/>
+      <c r="W111"/>
+      <c r="X111"/>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" s="5" t="s">
         <v>294</v>
       </c>
@@ -3873,8 +5414,22 @@
       <c r="G112" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+      <c r="O112"/>
+      <c r="P112"/>
+      <c r="Q112"/>
+      <c r="R112"/>
+      <c r="S112"/>
+      <c r="T112"/>
+      <c r="U112"/>
+      <c r="V112"/>
+      <c r="W112"/>
+      <c r="X112"/>
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" s="5" t="s">
         <v>295</v>
       </c>
@@ -3893,8 +5448,22 @@
       <c r="F113" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+      <c r="O113"/>
+      <c r="P113"/>
+      <c r="Q113"/>
+      <c r="R113"/>
+      <c r="S113"/>
+      <c r="T113"/>
+      <c r="U113"/>
+      <c r="V113"/>
+      <c r="W113"/>
+      <c r="X113"/>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" s="5" t="s">
         <v>296</v>
       </c>
@@ -3913,8 +5482,22 @@
       <c r="F114" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+      <c r="O114"/>
+      <c r="P114"/>
+      <c r="Q114"/>
+      <c r="R114"/>
+      <c r="S114"/>
+      <c r="T114"/>
+      <c r="U114"/>
+      <c r="V114"/>
+      <c r="W114"/>
+      <c r="X114"/>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" s="5" t="s">
         <v>300</v>
       </c>
@@ -3939,8 +5522,22 @@
       <c r="H115" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+      <c r="O115"/>
+      <c r="P115"/>
+      <c r="Q115"/>
+      <c r="R115"/>
+      <c r="S115"/>
+      <c r="T115"/>
+      <c r="U115"/>
+      <c r="V115"/>
+      <c r="W115"/>
+      <c r="X115"/>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" s="5" t="s">
         <v>301</v>
       </c>
@@ -3962,8 +5559,22 @@
       <c r="G116" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+      <c r="O116"/>
+      <c r="P116"/>
+      <c r="Q116"/>
+      <c r="R116"/>
+      <c r="S116"/>
+      <c r="T116"/>
+      <c r="U116"/>
+      <c r="V116"/>
+      <c r="W116"/>
+      <c r="X116"/>
+    </row>
+    <row r="117" spans="1:24">
       <c r="A117" s="5" t="s">
         <v>302</v>
       </c>
@@ -3982,8 +5593,22 @@
       <c r="F117" s="8" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+      <c r="O117"/>
+      <c r="P117"/>
+      <c r="Q117"/>
+      <c r="R117"/>
+      <c r="S117"/>
+      <c r="T117"/>
+      <c r="U117"/>
+      <c r="V117"/>
+      <c r="W117"/>
+      <c r="X117"/>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" s="5" t="s">
         <v>303</v>
       </c>
@@ -3999,8 +5624,22 @@
       <c r="E118" s="7" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+      <c r="O118"/>
+      <c r="P118"/>
+      <c r="Q118"/>
+      <c r="R118"/>
+      <c r="S118"/>
+      <c r="T118"/>
+      <c r="U118"/>
+      <c r="V118"/>
+      <c r="W118"/>
+      <c r="X118"/>
+    </row>
+    <row r="119" spans="1:24">
       <c r="A119" s="5" t="s">
         <v>306</v>
       </c>
@@ -4019,8 +5658,22 @@
       <c r="F119" s="7" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+      <c r="O119"/>
+      <c r="P119"/>
+      <c r="Q119"/>
+      <c r="R119"/>
+      <c r="S119"/>
+      <c r="T119"/>
+      <c r="U119"/>
+      <c r="V119"/>
+      <c r="W119"/>
+      <c r="X119"/>
+    </row>
+    <row r="120" spans="1:24">
       <c r="A120" s="5" t="s">
         <v>311</v>
       </c>
@@ -4036,8 +5689,22 @@
       <c r="E120" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+      <c r="O120"/>
+      <c r="P120"/>
+      <c r="Q120"/>
+      <c r="R120"/>
+      <c r="S120"/>
+      <c r="T120"/>
+      <c r="U120"/>
+      <c r="V120"/>
+      <c r="W120"/>
+      <c r="X120"/>
+    </row>
+    <row r="121" spans="1:24">
       <c r="A121" s="5" t="s">
         <v>313</v>
       </c>
@@ -4056,8 +5723,22 @@
       <c r="F121" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+      <c r="O121"/>
+      <c r="P121"/>
+      <c r="Q121"/>
+      <c r="R121"/>
+      <c r="S121"/>
+      <c r="T121"/>
+      <c r="U121"/>
+      <c r="V121"/>
+      <c r="W121"/>
+      <c r="X121"/>
+    </row>
+    <row r="122" spans="1:24">
       <c r="A122" s="5" t="s">
         <v>316</v>
       </c>
@@ -4076,8 +5757,22 @@
       <c r="F122" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+      <c r="O122"/>
+      <c r="P122"/>
+      <c r="Q122"/>
+      <c r="R122"/>
+      <c r="S122"/>
+      <c r="T122"/>
+      <c r="U122"/>
+      <c r="V122"/>
+      <c r="W122"/>
+      <c r="X122"/>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" s="5" t="s">
         <v>317</v>
       </c>
@@ -4093,8 +5788,22 @@
       <c r="E123" s="7" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+      <c r="O123"/>
+      <c r="P123"/>
+      <c r="Q123"/>
+      <c r="R123"/>
+      <c r="S123"/>
+      <c r="T123"/>
+      <c r="U123"/>
+      <c r="V123"/>
+      <c r="W123"/>
+      <c r="X123"/>
+    </row>
+    <row r="124" spans="1:24">
       <c r="A124" s="5" t="s">
         <v>318</v>
       </c>
@@ -4110,8 +5819,22 @@
       <c r="E124" s="7" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+      <c r="O124"/>
+      <c r="P124"/>
+      <c r="Q124"/>
+      <c r="R124"/>
+      <c r="S124"/>
+      <c r="T124"/>
+      <c r="U124"/>
+      <c r="V124"/>
+      <c r="W124"/>
+      <c r="X124"/>
+    </row>
+    <row r="125" spans="1:24">
       <c r="A125" s="5" t="s">
         <v>319</v>
       </c>
@@ -4127,8 +5850,22 @@
       <c r="E125" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+      <c r="O125"/>
+      <c r="P125"/>
+      <c r="Q125"/>
+      <c r="R125"/>
+      <c r="S125"/>
+      <c r="T125"/>
+      <c r="U125"/>
+      <c r="V125"/>
+      <c r="W125"/>
+      <c r="X125"/>
+    </row>
+    <row r="126" spans="1:24">
       <c r="A126" s="5" t="s">
         <v>320</v>
       </c>
@@ -4147,8 +5884,22 @@
       <c r="F126" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+      <c r="O126"/>
+      <c r="P126"/>
+      <c r="Q126"/>
+      <c r="R126"/>
+      <c r="S126"/>
+      <c r="T126"/>
+      <c r="U126"/>
+      <c r="V126"/>
+      <c r="W126"/>
+      <c r="X126"/>
+    </row>
+    <row r="127" spans="1:24">
       <c r="A127" s="5" t="s">
         <v>323</v>
       </c>
@@ -4164,8 +5915,22 @@
       <c r="E127" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+      <c r="O127"/>
+      <c r="P127"/>
+      <c r="Q127"/>
+      <c r="R127"/>
+      <c r="S127"/>
+      <c r="T127"/>
+      <c r="U127"/>
+      <c r="V127"/>
+      <c r="W127"/>
+      <c r="X127"/>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" s="5" t="s">
         <v>324</v>
       </c>
@@ -4187,8 +5952,22 @@
       <c r="G128" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+      <c r="O128"/>
+      <c r="P128"/>
+      <c r="Q128"/>
+      <c r="R128"/>
+      <c r="S128"/>
+      <c r="T128"/>
+      <c r="U128"/>
+      <c r="V128"/>
+      <c r="W128"/>
+      <c r="X128"/>
+    </row>
+    <row r="129" spans="1:24">
       <c r="A129" s="5" t="s">
         <v>326</v>
       </c>
@@ -4207,8 +5986,22 @@
       <c r="F129" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+      <c r="O129"/>
+      <c r="P129"/>
+      <c r="Q129"/>
+      <c r="R129"/>
+      <c r="S129"/>
+      <c r="T129"/>
+      <c r="U129"/>
+      <c r="V129"/>
+      <c r="W129"/>
+      <c r="X129"/>
+    </row>
+    <row r="130" spans="1:24">
       <c r="A130" s="5" t="s">
         <v>328</v>
       </c>
@@ -4230,8 +6023,22 @@
       <c r="G130" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+      <c r="O130"/>
+      <c r="P130"/>
+      <c r="Q130"/>
+      <c r="R130"/>
+      <c r="S130"/>
+      <c r="T130"/>
+      <c r="U130"/>
+      <c r="V130"/>
+      <c r="W130"/>
+      <c r="X130"/>
+    </row>
+    <row r="131" spans="1:24">
       <c r="A131" s="5" t="s">
         <v>329</v>
       </c>
@@ -4250,8 +6057,22 @@
       <c r="F131" s="7" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+      <c r="O131"/>
+      <c r="P131"/>
+      <c r="Q131"/>
+      <c r="R131"/>
+      <c r="S131"/>
+      <c r="T131"/>
+      <c r="U131"/>
+      <c r="V131"/>
+      <c r="W131"/>
+      <c r="X131"/>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" s="5" t="s">
         <v>331</v>
       </c>
@@ -4270,8 +6091,22 @@
       <c r="F132" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+      <c r="O132"/>
+      <c r="P132"/>
+      <c r="Q132"/>
+      <c r="R132"/>
+      <c r="S132"/>
+      <c r="T132"/>
+      <c r="U132"/>
+      <c r="V132"/>
+      <c r="W132"/>
+      <c r="X132"/>
+    </row>
+    <row r="133" spans="1:24">
       <c r="A133" s="5" t="s">
         <v>332</v>
       </c>
@@ -4296,8 +6131,22 @@
       <c r="H133" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+      <c r="O133"/>
+      <c r="P133"/>
+      <c r="Q133"/>
+      <c r="R133"/>
+      <c r="S133"/>
+      <c r="T133"/>
+      <c r="U133"/>
+      <c r="V133"/>
+      <c r="W133"/>
+      <c r="X133"/>
+    </row>
+    <row r="134" spans="1:24">
       <c r="A134" s="5" t="s">
         <v>333</v>
       </c>
@@ -4316,8 +6165,22 @@
       <c r="F134" s="7" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+      <c r="O134"/>
+      <c r="P134"/>
+      <c r="Q134"/>
+      <c r="R134"/>
+      <c r="S134"/>
+      <c r="T134"/>
+      <c r="U134"/>
+      <c r="V134"/>
+      <c r="W134"/>
+      <c r="X134"/>
+    </row>
+    <row r="135" spans="1:24">
       <c r="A135" s="5" t="s">
         <v>336</v>
       </c>
@@ -4336,8 +6199,22 @@
       <c r="F135" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+      <c r="O135"/>
+      <c r="P135"/>
+      <c r="Q135"/>
+      <c r="R135"/>
+      <c r="S135"/>
+      <c r="T135"/>
+      <c r="U135"/>
+      <c r="V135"/>
+      <c r="W135"/>
+      <c r="X135"/>
+    </row>
+    <row r="136" spans="1:24">
       <c r="A136" s="5" t="s">
         <v>339</v>
       </c>
@@ -4353,8 +6230,22 @@
       <c r="E136" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+      <c r="O136"/>
+      <c r="P136"/>
+      <c r="Q136"/>
+      <c r="R136"/>
+      <c r="S136"/>
+      <c r="T136"/>
+      <c r="U136"/>
+      <c r="V136"/>
+      <c r="W136"/>
+      <c r="X136"/>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" s="5" t="s">
         <v>340</v>
       </c>
@@ -4376,8 +6267,22 @@
       <c r="G137" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+      <c r="O137"/>
+      <c r="P137"/>
+      <c r="Q137"/>
+      <c r="R137"/>
+      <c r="S137"/>
+      <c r="T137"/>
+      <c r="U137"/>
+      <c r="V137"/>
+      <c r="W137"/>
+      <c r="X137"/>
+    </row>
+    <row r="138" spans="1:24">
       <c r="A138" s="5" t="s">
         <v>342</v>
       </c>
@@ -4402,8 +6307,22 @@
       <c r="H138" s="7" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+      <c r="O138"/>
+      <c r="P138"/>
+      <c r="Q138"/>
+      <c r="R138"/>
+      <c r="S138"/>
+      <c r="T138"/>
+      <c r="U138"/>
+      <c r="V138"/>
+      <c r="W138"/>
+      <c r="X138"/>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" s="5" t="s">
         <v>344</v>
       </c>
@@ -4425,8 +6344,22 @@
       <c r="G139" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="K139"/>
+      <c r="L139"/>
+      <c r="M139"/>
+      <c r="N139"/>
+      <c r="O139"/>
+      <c r="P139"/>
+      <c r="Q139"/>
+      <c r="R139"/>
+      <c r="S139"/>
+      <c r="T139"/>
+      <c r="U139"/>
+      <c r="V139"/>
+      <c r="W139"/>
+      <c r="X139"/>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" s="5" t="s">
         <v>347</v>
       </c>
@@ -4442,8 +6375,22 @@
       <c r="E140" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="K140"/>
+      <c r="L140"/>
+      <c r="M140"/>
+      <c r="N140"/>
+      <c r="O140"/>
+      <c r="P140"/>
+      <c r="Q140"/>
+      <c r="R140"/>
+      <c r="S140"/>
+      <c r="T140"/>
+      <c r="U140"/>
+      <c r="V140"/>
+      <c r="W140"/>
+      <c r="X140"/>
+    </row>
+    <row r="141" spans="1:24">
       <c r="A141" s="5" t="s">
         <v>348</v>
       </c>
@@ -4462,8 +6409,22 @@
       <c r="F141" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="K141"/>
+      <c r="L141"/>
+      <c r="M141"/>
+      <c r="N141"/>
+      <c r="O141"/>
+      <c r="P141"/>
+      <c r="Q141"/>
+      <c r="R141"/>
+      <c r="S141"/>
+      <c r="T141"/>
+      <c r="U141"/>
+      <c r="V141"/>
+      <c r="W141"/>
+      <c r="X141"/>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" s="5" t="s">
         <v>350</v>
       </c>
@@ -4485,8 +6446,22 @@
       <c r="G142" s="7" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="143" spans="1:8">
+      <c r="K142"/>
+      <c r="L142"/>
+      <c r="M142"/>
+      <c r="N142"/>
+      <c r="O142"/>
+      <c r="P142"/>
+      <c r="Q142"/>
+      <c r="R142"/>
+      <c r="S142"/>
+      <c r="T142"/>
+      <c r="U142"/>
+      <c r="V142"/>
+      <c r="W142"/>
+      <c r="X142"/>
+    </row>
+    <row r="143" spans="1:24">
       <c r="A143" s="5" t="s">
         <v>351</v>
       </c>
@@ -4502,8 +6477,22 @@
       <c r="E143" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="144" spans="1:8">
+      <c r="K143"/>
+      <c r="L143"/>
+      <c r="M143"/>
+      <c r="N143"/>
+      <c r="O143"/>
+      <c r="P143"/>
+      <c r="Q143"/>
+      <c r="R143"/>
+      <c r="S143"/>
+      <c r="T143"/>
+      <c r="U143"/>
+      <c r="V143"/>
+      <c r="W143"/>
+      <c r="X143"/>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" s="5" t="s">
         <v>352</v>
       </c>
@@ -4528,8 +6517,22 @@
       <c r="H144" s="7" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="145" spans="1:8">
+      <c r="K144"/>
+      <c r="L144"/>
+      <c r="M144"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
+      <c r="R144"/>
+      <c r="S144"/>
+      <c r="T144"/>
+      <c r="U144"/>
+      <c r="V144"/>
+      <c r="W144"/>
+      <c r="X144"/>
+    </row>
+    <row r="145" spans="1:24">
       <c r="A145" s="5" t="s">
         <v>354</v>
       </c>
@@ -4551,8 +6554,22 @@
       <c r="G145" s="7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="146" spans="1:8">
+      <c r="K145"/>
+      <c r="L145"/>
+      <c r="M145"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+      <c r="R145"/>
+      <c r="S145"/>
+      <c r="T145"/>
+      <c r="U145"/>
+      <c r="V145"/>
+      <c r="W145"/>
+      <c r="X145"/>
+    </row>
+    <row r="146" spans="1:24">
       <c r="A146" s="5" t="s">
         <v>355</v>
       </c>
@@ -4568,8 +6585,22 @@
       <c r="E146" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="147" spans="1:8">
+      <c r="K146"/>
+      <c r="L146"/>
+      <c r="M146"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+      <c r="R146"/>
+      <c r="S146"/>
+      <c r="T146"/>
+      <c r="U146"/>
+      <c r="V146"/>
+      <c r="W146"/>
+      <c r="X146"/>
+    </row>
+    <row r="147" spans="1:24">
       <c r="A147" s="5" t="s">
         <v>356</v>
       </c>
@@ -4588,8 +6619,22 @@
       <c r="F147" s="7" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="148" spans="1:8">
+      <c r="K147"/>
+      <c r="L147"/>
+      <c r="M147"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+      <c r="R147"/>
+      <c r="S147"/>
+      <c r="T147"/>
+      <c r="U147"/>
+      <c r="V147"/>
+      <c r="W147"/>
+      <c r="X147"/>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" s="5" t="s">
         <v>358</v>
       </c>
@@ -4608,8 +6653,22 @@
       <c r="F148" s="7" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="149" spans="1:8">
+      <c r="K148"/>
+      <c r="L148"/>
+      <c r="M148"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+      <c r="Q148"/>
+      <c r="R148"/>
+      <c r="S148"/>
+      <c r="T148"/>
+      <c r="U148"/>
+      <c r="V148"/>
+      <c r="W148"/>
+      <c r="X148"/>
+    </row>
+    <row r="149" spans="1:24">
       <c r="A149" s="5" t="s">
         <v>359</v>
       </c>
@@ -4628,8 +6687,22 @@
       <c r="F149" s="7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="150" spans="1:8">
+      <c r="K149"/>
+      <c r="L149"/>
+      <c r="M149"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
+      <c r="R149"/>
+      <c r="S149"/>
+      <c r="T149"/>
+      <c r="U149"/>
+      <c r="V149"/>
+      <c r="W149"/>
+      <c r="X149"/>
+    </row>
+    <row r="150" spans="1:24">
       <c r="A150" s="5" t="s">
         <v>360</v>
       </c>
@@ -4648,8 +6721,22 @@
       <c r="F150" s="7" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="151" spans="1:8">
+      <c r="K150"/>
+      <c r="L150"/>
+      <c r="M150"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+      <c r="R150"/>
+      <c r="S150"/>
+      <c r="T150"/>
+      <c r="U150"/>
+      <c r="V150"/>
+      <c r="W150"/>
+      <c r="X150"/>
+    </row>
+    <row r="151" spans="1:24">
       <c r="A151" s="5" t="s">
         <v>362</v>
       </c>
@@ -4674,8 +6761,22 @@
       <c r="H151" s="7" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="152" spans="1:8">
+      <c r="K151"/>
+      <c r="L151"/>
+      <c r="M151"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151"/>
+      <c r="R151"/>
+      <c r="S151"/>
+      <c r="T151"/>
+      <c r="U151"/>
+      <c r="V151"/>
+      <c r="W151"/>
+      <c r="X151"/>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" s="5" t="s">
         <v>365</v>
       </c>
@@ -4694,8 +6795,22 @@
       <c r="F152" s="7" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="153" spans="1:8">
+      <c r="K152"/>
+      <c r="L152"/>
+      <c r="M152"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+      <c r="R152"/>
+      <c r="S152"/>
+      <c r="T152"/>
+      <c r="U152"/>
+      <c r="V152"/>
+      <c r="W152"/>
+      <c r="X152"/>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" s="5" t="s">
         <v>367</v>
       </c>
@@ -4714,8 +6829,22 @@
       <c r="F153" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="154" spans="1:8">
+      <c r="K153"/>
+      <c r="L153"/>
+      <c r="M153"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
+      <c r="R153"/>
+      <c r="S153"/>
+      <c r="T153"/>
+      <c r="U153"/>
+      <c r="V153"/>
+      <c r="W153"/>
+      <c r="X153"/>
+    </row>
+    <row r="154" spans="1:24">
       <c r="A154" s="5" t="s">
         <v>368</v>
       </c>
@@ -4731,8 +6860,22 @@
       <c r="E154" s="7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="155" spans="1:8">
+      <c r="K154"/>
+      <c r="L154"/>
+      <c r="M154"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+      <c r="R154"/>
+      <c r="S154"/>
+      <c r="T154"/>
+      <c r="U154"/>
+      <c r="V154"/>
+      <c r="W154"/>
+      <c r="X154"/>
+    </row>
+    <row r="155" spans="1:24">
       <c r="A155" s="5" t="s">
         <v>369</v>
       </c>
@@ -4751,8 +6894,22 @@
       <c r="F155" s="7" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="156" spans="1:8">
+      <c r="K155"/>
+      <c r="L155"/>
+      <c r="M155"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+      <c r="R155"/>
+      <c r="S155"/>
+      <c r="T155"/>
+      <c r="U155"/>
+      <c r="V155"/>
+      <c r="W155"/>
+      <c r="X155"/>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" s="5" t="s">
         <v>370</v>
       </c>
@@ -4771,8 +6928,22 @@
       <c r="F156" s="7" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="157" spans="1:8">
+      <c r="K156"/>
+      <c r="L156"/>
+      <c r="M156"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+      <c r="R156"/>
+      <c r="S156"/>
+      <c r="T156"/>
+      <c r="U156"/>
+      <c r="V156"/>
+      <c r="W156"/>
+      <c r="X156"/>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" s="5" t="s">
         <v>374</v>
       </c>
@@ -4788,8 +6959,22 @@
       <c r="E157" s="7" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="158" spans="1:8">
+      <c r="K157"/>
+      <c r="L157"/>
+      <c r="M157"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
+      <c r="R157"/>
+      <c r="S157"/>
+      <c r="T157"/>
+      <c r="U157"/>
+      <c r="V157"/>
+      <c r="W157"/>
+      <c r="X157"/>
+    </row>
+    <row r="158" spans="1:24">
       <c r="A158" s="5" t="s">
         <v>375</v>
       </c>
@@ -4811,8 +6996,22 @@
       <c r="G158" s="7" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="159" spans="1:8">
+      <c r="K158"/>
+      <c r="L158"/>
+      <c r="M158"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+      <c r="Q158"/>
+      <c r="R158"/>
+      <c r="S158"/>
+      <c r="T158"/>
+      <c r="U158"/>
+      <c r="V158"/>
+      <c r="W158"/>
+      <c r="X158"/>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" s="5" t="s">
         <v>376</v>
       </c>
@@ -4831,8 +7030,22 @@
       <c r="F159" s="7" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="160" spans="1:8">
+      <c r="K159"/>
+      <c r="L159"/>
+      <c r="M159"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+      <c r="Q159"/>
+      <c r="R159"/>
+      <c r="S159"/>
+      <c r="T159"/>
+      <c r="U159"/>
+      <c r="V159"/>
+      <c r="W159"/>
+      <c r="X159"/>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" s="5" t="s">
         <v>377</v>
       </c>
@@ -4851,6 +7064,20 @@
       <c r="F160" s="7" t="s">
         <v>379</v>
       </c>
+      <c r="K160"/>
+      <c r="L160"/>
+      <c r="M160"/>
+      <c r="N160"/>
+      <c r="O160"/>
+      <c r="P160"/>
+      <c r="Q160"/>
+      <c r="R160"/>
+      <c r="S160"/>
+      <c r="T160"/>
+      <c r="U160"/>
+      <c r="V160"/>
+      <c r="W160"/>
+      <c r="X160"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="5" t="s">
